--- a/correlation_matrix.xlsx
+++ b/correlation_matrix.xlsx
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7556009014400497</v>
+        <v>0.7560373051257697</v>
       </c>
       <c r="D2">
-        <v>0.8805569643793221</v>
+        <v>0.8801960232663003</v>
       </c>
       <c r="E2">
-        <v>0.8497234536210608</v>
+        <v>0.8487152590315542</v>
       </c>
       <c r="F2">
-        <v>0.4660974817195672</v>
+        <v>0.466824969125601</v>
       </c>
       <c r="G2">
-        <v>-0.1870851596845133</v>
+        <v>-0.1851430141180664</v>
       </c>
       <c r="H2">
-        <v>0.06458763632758822</v>
+        <v>0.06309584670034227</v>
       </c>
       <c r="I2">
-        <v>0.1646433665775301</v>
+        <v>0.1623848123430554</v>
       </c>
       <c r="J2">
-        <v>0.9164213997699043</v>
+        <v>0.9162215494566076</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -470,31 +470,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7556009014400497</v>
+        <v>0.7560373051257697</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5006349480214827</v>
+        <v>0.5013988713468038</v>
       </c>
       <c r="E3">
-        <v>0.7889662332707422</v>
+        <v>0.7888863872890487</v>
       </c>
       <c r="F3">
-        <v>0.1525829486370687</v>
+        <v>0.152630227398226</v>
       </c>
       <c r="G3">
-        <v>-0.04834769203150373</v>
+        <v>-0.04495019422844061</v>
       </c>
       <c r="H3">
-        <v>-0.1326083637565248</v>
+        <v>-0.1333695928243311</v>
       </c>
       <c r="I3">
-        <v>0.08362174480098113</v>
+        <v>0.08114011242498262</v>
       </c>
       <c r="J3">
-        <v>0.7148758881996533</v>
+        <v>0.7142012629660934</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -502,31 +502,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8805569643793221</v>
+        <v>0.8801960232663003</v>
       </c>
       <c r="C4">
-        <v>0.5006349480214827</v>
+        <v>0.5013988713468038</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7088471121716051</v>
+        <v>0.7078242638514379</v>
       </c>
       <c r="F4">
-        <v>0.4394055261544272</v>
+        <v>0.4389248501552825</v>
       </c>
       <c r="G4">
-        <v>-0.179126219537052</v>
+        <v>-0.1792624688435281</v>
       </c>
       <c r="H4">
-        <v>0.1601239378339292</v>
+        <v>0.160109266177086</v>
       </c>
       <c r="I4">
-        <v>0.3075703891249798</v>
+        <v>0.306510018245836</v>
       </c>
       <c r="J4">
-        <v>0.7768135189220251</v>
+        <v>0.7764406484545368</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -534,31 +534,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8497234536210608</v>
+        <v>0.8487152590315542</v>
       </c>
       <c r="C5">
-        <v>0.7889662332707422</v>
+        <v>0.7888863872890487</v>
       </c>
       <c r="D5">
-        <v>0.7088471121716051</v>
+        <v>0.7078242638514379</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.05762267024697727</v>
+        <v>0.05655787306049051</v>
       </c>
       <c r="G5">
-        <v>-0.1538832233079907</v>
+        <v>-0.1526618169353557</v>
       </c>
       <c r="H5">
-        <v>-0.0006788463784914652</v>
+        <v>-0.001694332626848984</v>
       </c>
       <c r="I5">
-        <v>0.1818049487560533</v>
+        <v>0.1792817592405994</v>
       </c>
       <c r="J5">
-        <v>0.819779736990854</v>
+        <v>0.8186785700533541</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -566,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4660974817195672</v>
+        <v>0.466824969125601</v>
       </c>
       <c r="C6">
-        <v>0.1525829486370687</v>
+        <v>0.152630227398226</v>
       </c>
       <c r="D6">
-        <v>0.4394055261544272</v>
+        <v>0.4389248501552825</v>
       </c>
       <c r="E6">
-        <v>0.05762267024697727</v>
+        <v>0.05655787306049051</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.3273212850355799</v>
+        <v>-0.3249360327533179</v>
       </c>
       <c r="H6">
-        <v>-0.0378981872161932</v>
+        <v>-0.03934114687089654</v>
       </c>
       <c r="I6">
-        <v>-0.1674771207349449</v>
+        <v>-0.1668834404414252</v>
       </c>
       <c r="J6">
-        <v>0.3115396473383266</v>
+        <v>0.3133981795068446</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -598,31 +598,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.1870851596845133</v>
+        <v>-0.1851430141180664</v>
       </c>
       <c r="C7">
-        <v>-0.04834769203150373</v>
+        <v>-0.04495019422844061</v>
       </c>
       <c r="D7">
-        <v>-0.179126219537052</v>
+        <v>-0.1792624688435281</v>
       </c>
       <c r="E7">
-        <v>-0.1538832233079907</v>
+        <v>-0.1526618169353557</v>
       </c>
       <c r="F7">
-        <v>-0.3273212850355799</v>
+        <v>-0.3249360327533179</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.5920176497741011</v>
+        <v>-0.5913466137294352</v>
       </c>
       <c r="I7">
-        <v>-0.2954187252687691</v>
+        <v>-0.2988986225498411</v>
       </c>
       <c r="J7">
-        <v>-0.1785361510428573</v>
+        <v>-0.1760798608854427</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -630,31 +630,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06458763632758822</v>
+        <v>0.06309584670034227</v>
       </c>
       <c r="C8">
-        <v>-0.1326083637565248</v>
+        <v>-0.1333695928243311</v>
       </c>
       <c r="D8">
-        <v>0.1601239378339292</v>
+        <v>0.160109266177086</v>
       </c>
       <c r="E8">
-        <v>-0.0006788463784914652</v>
+        <v>-0.001694332626848984</v>
       </c>
       <c r="F8">
-        <v>-0.0378981872161932</v>
+        <v>-0.03934114687089654</v>
       </c>
       <c r="G8">
-        <v>-0.5920176497741011</v>
+        <v>-0.5913466137294352</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.7356954384145714</v>
+        <v>0.7386780150229564</v>
       </c>
       <c r="J8">
-        <v>0.2089435403848151</v>
+        <v>0.2068423422107432</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -662,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1646433665775301</v>
+        <v>0.1623848123430554</v>
       </c>
       <c r="C9">
-        <v>0.08362174480098113</v>
+        <v>0.08114011242498262</v>
       </c>
       <c r="D9">
-        <v>0.3075703891249798</v>
+        <v>0.306510018245836</v>
       </c>
       <c r="E9">
-        <v>0.1818049487560533</v>
+        <v>0.1792817592405994</v>
       </c>
       <c r="F9">
-        <v>-0.1674771207349449</v>
+        <v>-0.1668834404414252</v>
       </c>
       <c r="G9">
-        <v>-0.2954187252687691</v>
+        <v>-0.2988986225498411</v>
       </c>
       <c r="H9">
-        <v>0.7356954384145714</v>
+        <v>0.7386780150229564</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.1757837261169743</v>
+        <v>0.1724424122284664</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -694,28 +694,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9164213997699043</v>
+        <v>0.9162215494566076</v>
       </c>
       <c r="C10">
-        <v>0.7148758881996533</v>
+        <v>0.7142012629660934</v>
       </c>
       <c r="D10">
-        <v>0.7768135189220251</v>
+        <v>0.7764406484545368</v>
       </c>
       <c r="E10">
-        <v>0.819779736990854</v>
+        <v>0.8186785700533541</v>
       </c>
       <c r="F10">
-        <v>0.3115396473383266</v>
+        <v>0.3133981795068446</v>
       </c>
       <c r="G10">
-        <v>-0.1785361510428573</v>
+        <v>-0.1760798608854427</v>
       </c>
       <c r="H10">
-        <v>0.2089435403848151</v>
+        <v>0.2068423422107432</v>
       </c>
       <c r="I10">
-        <v>0.1757837261169743</v>
+        <v>0.1724424122284664</v>
       </c>
       <c r="J10">
         <v>1</v>

--- a/correlation_matrix.xlsx
+++ b/correlation_matrix.xlsx
@@ -14,33 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
-  <si>
-    <t>S&amp;P500</t>
-  </si>
-  <si>
-    <t>EuroStoxx50</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Kospi200</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>WTI</t>
-  </si>
-  <si>
-    <t>K_treasury</t>
-  </si>
-  <si>
-    <t>K_corp_bond</t>
-  </si>
-  <si>
-    <t>global_bonds</t>
+    <t>RLOLITONOSTSAM</t>
   </si>
 </sst>
 </file>
@@ -398,42 +377,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,283 +399,17 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7560373051257697</v>
-      </c>
-      <c r="D2">
-        <v>0.8801960232663003</v>
-      </c>
-      <c r="E2">
-        <v>0.8487152590315542</v>
-      </c>
-      <c r="F2">
-        <v>0.466824969125601</v>
-      </c>
-      <c r="G2">
-        <v>-0.1851430141180664</v>
-      </c>
-      <c r="H2">
-        <v>0.06309584670034227</v>
-      </c>
-      <c r="I2">
-        <v>0.1623848123430554</v>
-      </c>
-      <c r="J2">
-        <v>0.9162215494566076</v>
+        <v>0.2740597767106148</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7560373051257697</v>
+        <v>0.2740597767106148</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.5013988713468038</v>
-      </c>
-      <c r="E3">
-        <v>0.7888863872890487</v>
-      </c>
-      <c r="F3">
-        <v>0.152630227398226</v>
-      </c>
-      <c r="G3">
-        <v>-0.04495019422844061</v>
-      </c>
-      <c r="H3">
-        <v>-0.1333695928243311</v>
-      </c>
-      <c r="I3">
-        <v>0.08114011242498262</v>
-      </c>
-      <c r="J3">
-        <v>0.7142012629660934</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.8801960232663003</v>
-      </c>
-      <c r="C4">
-        <v>0.5013988713468038</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.7078242638514379</v>
-      </c>
-      <c r="F4">
-        <v>0.4389248501552825</v>
-      </c>
-      <c r="G4">
-        <v>-0.1792624688435281</v>
-      </c>
-      <c r="H4">
-        <v>0.160109266177086</v>
-      </c>
-      <c r="I4">
-        <v>0.306510018245836</v>
-      </c>
-      <c r="J4">
-        <v>0.7764406484545368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.8487152590315542</v>
-      </c>
-      <c r="C5">
-        <v>0.7888863872890487</v>
-      </c>
-      <c r="D5">
-        <v>0.7078242638514379</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.05655787306049051</v>
-      </c>
-      <c r="G5">
-        <v>-0.1526618169353557</v>
-      </c>
-      <c r="H5">
-        <v>-0.001694332626848984</v>
-      </c>
-      <c r="I5">
-        <v>0.1792817592405994</v>
-      </c>
-      <c r="J5">
-        <v>0.8186785700533541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.466824969125601</v>
-      </c>
-      <c r="C6">
-        <v>0.152630227398226</v>
-      </c>
-      <c r="D6">
-        <v>0.4389248501552825</v>
-      </c>
-      <c r="E6">
-        <v>0.05655787306049051</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>-0.3249360327533179</v>
-      </c>
-      <c r="H6">
-        <v>-0.03934114687089654</v>
-      </c>
-      <c r="I6">
-        <v>-0.1668834404414252</v>
-      </c>
-      <c r="J6">
-        <v>0.3133981795068446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-0.1851430141180664</v>
-      </c>
-      <c r="C7">
-        <v>-0.04495019422844061</v>
-      </c>
-      <c r="D7">
-        <v>-0.1792624688435281</v>
-      </c>
-      <c r="E7">
-        <v>-0.1526618169353557</v>
-      </c>
-      <c r="F7">
-        <v>-0.3249360327533179</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>-0.5913466137294352</v>
-      </c>
-      <c r="I7">
-        <v>-0.2988986225498411</v>
-      </c>
-      <c r="J7">
-        <v>-0.1760798608854427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.06309584670034227</v>
-      </c>
-      <c r="C8">
-        <v>-0.1333695928243311</v>
-      </c>
-      <c r="D8">
-        <v>0.160109266177086</v>
-      </c>
-      <c r="E8">
-        <v>-0.001694332626848984</v>
-      </c>
-      <c r="F8">
-        <v>-0.03934114687089654</v>
-      </c>
-      <c r="G8">
-        <v>-0.5913466137294352</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0.7386780150229564</v>
-      </c>
-      <c r="J8">
-        <v>0.2068423422107432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.1623848123430554</v>
-      </c>
-      <c r="C9">
-        <v>0.08114011242498262</v>
-      </c>
-      <c r="D9">
-        <v>0.306510018245836</v>
-      </c>
-      <c r="E9">
-        <v>0.1792817592405994</v>
-      </c>
-      <c r="F9">
-        <v>-0.1668834404414252</v>
-      </c>
-      <c r="G9">
-        <v>-0.2988986225498411</v>
-      </c>
-      <c r="H9">
-        <v>0.7386780150229564</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0.1724424122284664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.9162215494566076</v>
-      </c>
-      <c r="C10">
-        <v>0.7142012629660934</v>
-      </c>
-      <c r="D10">
-        <v>0.7764406484545368</v>
-      </c>
-      <c r="E10">
-        <v>0.8186785700533541</v>
-      </c>
-      <c r="F10">
-        <v>0.3133981795068446</v>
-      </c>
-      <c r="G10">
-        <v>-0.1760798608854427</v>
-      </c>
-      <c r="H10">
-        <v>0.2068423422107432</v>
-      </c>
-      <c r="I10">
-        <v>0.1724424122284664</v>
-      </c>
-      <c r="J10">
         <v>1</v>
       </c>
     </row>

--- a/correlation_matrix.xlsx
+++ b/correlation_matrix.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
-    <t>Kospi200</t>
+    <t>S&amp;P500</t>
   </si>
   <si>
-    <t>RLOLITONOSTSAM</t>
+    <t>EuroStoxx50</t>
+  </si>
+  <si>
+    <t>global_bonds</t>
   </si>
 </sst>
 </file>
@@ -377,21 +380,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,17 +405,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2740597767106148</v>
+        <v>0.4626833985478638</v>
+      </c>
+      <c r="D2">
+        <v>0.9202074331286239</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2740597767106148</v>
+        <v>0.4626833985478638</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.4011065760801188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.9202074331286239</v>
+      </c>
+      <c r="C4">
+        <v>0.4011065760801188</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>

--- a/correlation_matrix.xlsx
+++ b/correlation_matrix.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>S&amp;P500</t>
   </si>
   <si>
-    <t>EuroStoxx50</t>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Kospi200</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>WTI</t>
+  </si>
+  <si>
+    <t>K_treasury</t>
+  </si>
+  <si>
+    <t>K_corp_bond</t>
   </si>
   <si>
     <t>global_bonds</t>
@@ -380,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +411,23 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,37 +435,227 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.4626833985478638</v>
+        <v>0.6998666321284442</v>
       </c>
       <c r="D2">
-        <v>0.9202074331286239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.8150783844262781</v>
+      </c>
+      <c r="E2">
+        <v>0.1156948483490844</v>
+      </c>
+      <c r="F2">
+        <v>-0.6037594671456528</v>
+      </c>
+      <c r="G2">
+        <v>0.784067051792052</v>
+      </c>
+      <c r="H2">
+        <v>0.7495275017817324</v>
+      </c>
+      <c r="I2">
+        <v>0.9202057654033214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4626833985478638</v>
+        <v>0.6998666321284442</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4011065760801188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.8997079696946566</v>
+      </c>
+      <c r="E3">
+        <v>0.04379182799911028</v>
+      </c>
+      <c r="F3">
+        <v>-0.5314214205653955</v>
+      </c>
+      <c r="G3">
+        <v>0.6190401330723398</v>
+      </c>
+      <c r="H3">
+        <v>0.7153791319941667</v>
+      </c>
+      <c r="I3">
+        <v>0.5879142527021959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9202074331286239</v>
+        <v>0.8150783844262781</v>
       </c>
       <c r="C4">
-        <v>0.4011065760801188</v>
+        <v>0.8997079696946566</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-0.1459691394944984</v>
+      </c>
+      <c r="F4">
+        <v>-0.5005338126282869</v>
+      </c>
+      <c r="G4">
+        <v>0.6707553186115066</v>
+      </c>
+      <c r="H4">
+        <v>0.7155247127037971</v>
+      </c>
+      <c r="I4">
+        <v>0.7020722691999959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1156948483490844</v>
+      </c>
+      <c r="C5">
+        <v>0.04379182799911028</v>
+      </c>
+      <c r="D5">
+        <v>-0.1459691394944984</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-0.4834998051590432</v>
+      </c>
+      <c r="G5">
+        <v>0.1001054865159668</v>
+      </c>
+      <c r="H5">
+        <v>0.04754038645372555</v>
+      </c>
+      <c r="I5">
+        <v>0.1860429897050268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.6037594671456528</v>
+      </c>
+      <c r="C6">
+        <v>-0.5314214205653955</v>
+      </c>
+      <c r="D6">
+        <v>-0.5005338126282869</v>
+      </c>
+      <c r="E6">
+        <v>-0.4834998051590432</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>-0.7454485727909008</v>
+      </c>
+      <c r="H6">
+        <v>-0.6810985214977375</v>
+      </c>
+      <c r="I6">
+        <v>-0.5322923581610045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.784067051792052</v>
+      </c>
+      <c r="C7">
+        <v>0.6190401330723398</v>
+      </c>
+      <c r="D7">
+        <v>0.6707553186115066</v>
+      </c>
+      <c r="E7">
+        <v>0.1001054865159668</v>
+      </c>
+      <c r="F7">
+        <v>-0.7454485727909008</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.9182158444064913</v>
+      </c>
+      <c r="I7">
+        <v>0.6773559548205431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.7495275017817324</v>
+      </c>
+      <c r="C8">
+        <v>0.7153791319941667</v>
+      </c>
+      <c r="D8">
+        <v>0.7155247127037971</v>
+      </c>
+      <c r="E8">
+        <v>0.04754038645372555</v>
+      </c>
+      <c r="F8">
+        <v>-0.6810985214977375</v>
+      </c>
+      <c r="G8">
+        <v>0.9182158444064913</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.6073162434477504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.9202057654033214</v>
+      </c>
+      <c r="C9">
+        <v>0.5879142527021959</v>
+      </c>
+      <c r="D9">
+        <v>0.7020722691999959</v>
+      </c>
+      <c r="E9">
+        <v>0.1860429897050268</v>
+      </c>
+      <c r="F9">
+        <v>-0.5322923581610045</v>
+      </c>
+      <c r="G9">
+        <v>0.6773559548205431</v>
+      </c>
+      <c r="H9">
+        <v>0.6073162434477504</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
